--- a/FinalProject/wwwroot/Data/SeedingDataBevoBnB.xlsx
+++ b/FinalProject/wwwroot/Data/SeedingDataBevoBnB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mis333k\Final Project\FinalProject\FinalProject\wwwroot\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FCF82D-CE8D-44B7-9DD1-A5A8F6CE678D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62373936-8ED9-4840-BBEC-9F8760B9BEA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3606,7 +3606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3670,9 +3670,6 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17674,7 +17671,7 @@
       <c r="U1" s="35" t="s">
         <v>1098</v>
       </c>
-      <c r="V1" s="45" t="s">
+      <c r="V1" s="26" t="s">
         <v>1106</v>
       </c>
     </row>
@@ -30188,7 +30185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
